--- a/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="480" yWindow="350" windowWidth="14700" windowHeight="8260" tabRatio="409"/>
   </bookViews>
   <sheets>
-    <sheet name="templete" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">templete!$A$7:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">template!$A$7:$I$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -452,44 +452,44 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -940,7 +940,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1097,53 +1097,53 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" s="36" customFormat="1" ht="22" customHeight="1">
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="21" t="s" ph="1">
         <v>26</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:9" s="36" customFormat="1" ht="22" customHeight="1">
+      <c r="C11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="21" t="s" ph="1">
         <v>23</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" ht="22" customHeight="1">
+      <c r="C12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="21" t="s" ph="1">
         <v>13</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:9" s="36" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="36" t="s" ph="1">
+      <c r="C13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" s="35" customFormat="1" ht="22" customHeight="1">
+      <c r="A14" s="35" t="s" ph="1">
         <v>24</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="E14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="C14" s="36"/>
+      <c r="E14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="28">
       <c r="A15" s="8" ph="1"/>
-      <c r="E15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46" t="s">
+      <c r="E15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8"/>
-      <c r="I18" s="46"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" ht="28">
       <c r="A19" s="22" ph="1"/>

--- a/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>品番</t>
     <rPh sb="0" eb="1">
@@ -88,34 +88,9 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>75446-F4010</t>
-  </si>
-  <si>
-    <t>PLATE, LUGGAGE COMPT DOOR NAME, NO.6</t>
-  </si>
-  <si>
-    <t>福奇特</t>
-  </si>
-  <si>
-    <t>12/14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7240-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发注数量
 （单位：个）</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>6H</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -157,12 +132,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1）此订单采购的84*B号试用补给品，请单独托盘出荷，贴付补给品号试用货垛标签</t>
+    <t xml:space="preserve">
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">一汽丰田84*B补给品号试订单
-</t>
+    <t>1）此订单采购的号试用补给品，请单独托盘出荷，贴付补给品号试用货垛标签</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -389,18 +364,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,6 +456,18 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -516,138 +491,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161958</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1708214</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>146718</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1026" name="Group 2"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8286750" y="847758"/>
-          <a:ext cx="774764" cy="441960"/>
-          <a:chOff x="358" y="6"/>
-          <a:chExt cx="107" cy="57"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="1027" name="Text Box 3"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="366" y="16"/>
-            <a:ext cx="90" cy="39"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="MS PGothic"/>
-                <a:ea typeface="MS PGothic"/>
-              </a:rPr>
-              <a:t>補給品</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="1028" name="Oval 4"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="358" y="6"/>
-            <a:ext cx="107" cy="57"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,22 +782,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="32" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="8.4140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="6.08203125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.9140625" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="5.08203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.4140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="6.08203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.9140625" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -976,15 +819,13 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="I2" s="20">
-        <v>44146</v>
-      </c>
+      <c r="D2" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -992,10 +833,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
@@ -1032,63 +873,45 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="51">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:9" ht="34">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="G7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="1:9" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8"/>
@@ -1097,53 +920,53 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" s="35" customFormat="1" ht="22" customHeight="1">
-      <c r="A11" s="21" t="s" ph="1">
-        <v>26</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" s="35" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="21" t="s" ph="1">
-        <v>23</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:9" s="35" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="21" t="s" ph="1">
+      <c r="H10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="A11" s="17" t="s" ph="1">
+        <v>20</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="A12" s="17" t="s" ph="1">
+        <v>16</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="A13" s="17" t="s" ph="1">
         <v>13</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" s="35" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="35" t="s" ph="1">
-        <v>24</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="E14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="C13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="A14" s="31" t="s" ph="1">
+        <v>17</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="E14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="28">
       <c r="A15" s="8" ph="1"/>
-      <c r="E15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43" t="s">
+      <c r="E15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1155,13 +978,12 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8"/>
-      <c r="I18" s="43"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="22" ph="1"/>
+      <c r="A19" s="18" ph="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:I8"/>
   <sortState ref="A8:I48">
     <sortCondition ref="E8:E48"/>
   </sortState>
@@ -1176,6 +998,5 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
@@ -445,6 +445,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,18 +468,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -819,12 +819,12 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
@@ -833,10 +833,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
@@ -904,11 +904,11 @@
     </row>
     <row r="8" spans="1:9" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
@@ -920,7 +920,7 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="44" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="30"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="C11" s="32"/>
       <c r="E11" s="33"/>
-      <c r="H11" s="41"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
@@ -940,7 +940,7 @@
       </c>
       <c r="C12" s="32"/>
       <c r="E12" s="33"/>
-      <c r="H12" s="41"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
@@ -949,7 +949,7 @@
       </c>
       <c r="C13" s="32"/>
       <c r="E13" s="33"/>
-      <c r="H13" s="42"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">

--- a/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
@@ -210,14 +210,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="华文细黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="12"/>
       <name val="华文细黑"/>
@@ -230,6 +222,14 @@
       <name val="华文细黑"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,7 +330,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -361,18 +361,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -445,17 +433,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,7 +463,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -783,21 +780,21 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.4140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="6.08203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.9140625" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="5.08203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="8.4140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="6.08203125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.9140625" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -819,13 +816,13 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="I2" s="16"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -833,10 +830,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
@@ -874,44 +871,44 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="34">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
+    <row r="8" spans="1:9" s="22" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8"/>
@@ -920,53 +917,53 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
-      <c r="A11" s="17" t="s" ph="1">
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" s="27" customFormat="1" ht="22" customHeight="1">
+      <c r="A11" s="13" t="s" ph="1">
         <v>20</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="17" t="s" ph="1">
+      <c r="C11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" s="27" customFormat="1" ht="22" customHeight="1">
+      <c r="A12" s="13" t="s" ph="1">
         <v>16</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="17" t="s" ph="1">
+      <c r="C12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" s="27" customFormat="1" ht="22" customHeight="1">
+      <c r="A13" s="13" t="s" ph="1">
         <v>13</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" s="31" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="31" t="s" ph="1">
+      <c r="C13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="22" customHeight="1">
+      <c r="A14" s="27" t="s" ph="1">
         <v>17</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="E14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="C14" s="28"/>
+      <c r="E14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" ht="28">
       <c r="A15" s="8" ph="1"/>
-      <c r="E15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39" t="s">
+      <c r="E15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -978,10 +975,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8"/>
-      <c r="I18" s="39"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="18" ph="1"/>
+      <c r="A19" s="14" ph="1"/>
     </row>
   </sheetData>
   <sortState ref="A8:I48">

--- a/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="350" windowWidth="14700" windowHeight="8260" tabRatio="409"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">template!$A$7:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>品番</t>
     <rPh sb="0" eb="1">
@@ -40,57 +40,98 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>厂家名称：</t>
+    <t>No</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>厂家名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受入</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以上。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家出荷日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)  如EU箱一层未满，请用空箱填平，并在空箱外贴上空箱看板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFTM 补给资材企管课 部品组</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TFTM受入验收
+盖章处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>厂家编码：</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>No</t>
+    <t>发注数量</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>厂家名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>受入</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>以上。</t>
+    <r>
+      <t xml:space="preserve">4)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出荷时账票齐全（订单、看板、货垛标签）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>纳入日</t>
+    <r>
+      <t>1）此订单采购的新车号试用补给品，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请单独托盘出荷，贴付补给品号试用货垛标签</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家出荷日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意事项：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)  如EU箱一层未满，请用空箱填平，并在空箱外贴上空箱看板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFTM 补给资材企管课 部品组</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>发注数量
-（单位：个）</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -100,7 +141,8 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="12"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="华文细黑"/>
         <family val="3"/>
         <charset val="134"/>
@@ -109,43 +151,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="华文细黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出荷时账票齐全（订单、看板、货垛标签）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFTM受入验收
-盖章处</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）此订单采购的号试用补给品，请单独托盘出荷，贴付补给品号试用货垛标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -202,22 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="华文细黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <name val="华文细黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <name val="华文细黑"/>
       <family val="3"/>
@@ -230,6 +225,36 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,7 +355,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -348,25 +373,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -403,9 +418,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -415,9 +427,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -433,26 +442,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -463,8 +492,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -780,21 +818,20 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="8.4140625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="6.08203125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.9140625" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="5.08203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.4140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.08203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="20.83203125" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -806,34 +843,33 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="I1" s="10" t="s">
-        <v>14</v>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
+      <c r="A2" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
@@ -870,123 +906,124 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="34">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="G7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="49"/>
+    </row>
+    <row r="11" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
+      <c r="A11" s="44" t="s" ph="1">
+        <v>18</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
+      <c r="A12" s="44" t="s" ph="1">
+        <v>19</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
+      <c r="A13" s="44" t="s" ph="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
+      <c r="A14" s="43" t="s" ph="1">
+        <v>17</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="E14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="28">
+      <c r="A15" s="7" ph="1"/>
+      <c r="E15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="22" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" s="27" customFormat="1" ht="22" customHeight="1">
-      <c r="A11" s="13" t="s" ph="1">
-        <v>20</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" s="27" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="13" t="s" ph="1">
-        <v>16</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" s="27" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="13" t="s" ph="1">
-        <v>13</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="27" t="s" ph="1">
-        <v>17</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="E14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="8" ph="1"/>
-      <c r="E15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="8"/>
-      <c r="I18" s="35"/>
+      <c r="A18" s="7"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="14" ph="1"/>
+      <c r="A19" s="10" ph="1"/>
     </row>
   </sheetData>
   <sortState ref="A8:I48">
     <sortCondition ref="E8:E48"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="D2:G3"/>
+    <mergeCell ref="I10:I13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">template!$A$7:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -44,10 +44,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>厂家名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>受入</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -65,10 +61,6 @@
   </si>
   <si>
     <t>注意事项：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -149,6 +141,14 @@
       </rPr>
       <t>使用TFTM承认的正规EU荷姿或铁箱</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家编码</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>工区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -817,9 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
@@ -845,17 +843,17 @@
       <c r="F1" s="3"/>
       <c r="H1" s="37"/>
       <c r="I1" s="38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
       <c r="D2" s="48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -917,22 +915,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="G7" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>7</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="18" customFormat="1" ht="20.149999999999999" customHeight="1">
@@ -951,16 +949,16 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="44" t="s" ph="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="23"/>
       <c r="E11" s="24"/>
@@ -969,7 +967,7 @@
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="44" t="s" ph="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="23"/>
       <c r="E12" s="24"/>
@@ -978,7 +976,7 @@
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="44" t="s" ph="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="23"/>
       <c r="E13" s="24"/>
@@ -987,7 +985,7 @@
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="43" t="s" ph="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="23"/>
       <c r="E14" s="25"/>
@@ -1000,7 +998,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9">

--- a/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_HSOrder.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">template!$A$7:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -66,10 +66,6 @@
   <si>
     <t>3)  如EU箱一层未满，请用空箱填平，并在空箱外贴上空箱看板</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFTM 补给资材企管课 部品组</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TFTM受入验收
@@ -150,6 +146,10 @@
   <si>
     <t>工区</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TFTM 补给资材企管课 </t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -817,7 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
@@ -843,17 +845,17 @@
       <c r="F1" s="3"/>
       <c r="H1" s="37"/>
       <c r="I1" s="38" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
       <c r="D2" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
@@ -915,16 +917,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>6</v>
@@ -952,13 +954,13 @@
         <v>8</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="44" t="s" ph="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="23"/>
       <c r="E11" s="24"/>
@@ -967,7 +969,7 @@
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="44" t="s" ph="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="23"/>
       <c r="E12" s="24"/>
@@ -985,7 +987,7 @@
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="43" t="s" ph="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="23"/>
       <c r="E14" s="25"/>
